--- a/data/pca/factorExposure/factorExposure_2014-12-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01104486550710232</v>
+        <v>-0.01165942429794038</v>
       </c>
       <c r="C2">
-        <v>0.05362681343697067</v>
+        <v>0.06393153623026727</v>
       </c>
       <c r="D2">
-        <v>-0.1547390896203775</v>
+        <v>-0.03836550200846134</v>
       </c>
       <c r="E2">
-        <v>0.1088136630245748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1399674743587487</v>
+      </c>
+      <c r="F2">
+        <v>-0.0428453252284496</v>
+      </c>
+      <c r="G2">
+        <v>-0.1297718637228889</v>
+      </c>
+      <c r="H2">
+        <v>0.06004332356315426</v>
+      </c>
+      <c r="I2">
+        <v>-0.0734570206507191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03154017699214576</v>
+        <v>-0.01817504845443504</v>
       </c>
       <c r="C4">
-        <v>0.1352815586611215</v>
+        <v>0.1495317973620647</v>
       </c>
       <c r="D4">
-        <v>-0.1004769414216098</v>
+        <v>-0.004753296602968652</v>
       </c>
       <c r="E4">
-        <v>0.05664531125610206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.09542657805259325</v>
+      </c>
+      <c r="F4">
+        <v>0.06882954078931158</v>
+      </c>
+      <c r="G4">
+        <v>-0.05456275923139822</v>
+      </c>
+      <c r="H4">
+        <v>0.1006806507462452</v>
+      </c>
+      <c r="I4">
+        <v>-0.01783461600436061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.01475605611662346</v>
+        <v>-0.02939111082489109</v>
       </c>
       <c r="C6">
-        <v>0.05476160542136536</v>
+        <v>0.06353555020514724</v>
       </c>
       <c r="D6">
-        <v>-0.08691702288193781</v>
+        <v>-0.0183038880053356</v>
       </c>
       <c r="E6">
-        <v>0.0733788869638175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1105791477335644</v>
+      </c>
+      <c r="F6">
+        <v>-0.03595243313583079</v>
+      </c>
+      <c r="G6">
+        <v>0.007244821843043614</v>
+      </c>
+      <c r="H6">
+        <v>0.03747919530912774</v>
+      </c>
+      <c r="I6">
+        <v>-0.03962583858726793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01108708981941439</v>
+        <v>-0.006519752712126702</v>
       </c>
       <c r="C7">
-        <v>0.04963426974749514</v>
+        <v>0.06382946131841756</v>
       </c>
       <c r="D7">
-        <v>-0.05678729761893685</v>
+        <v>-0.01336794501310996</v>
       </c>
       <c r="E7">
-        <v>0.04924666012372564</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.06963708438072409</v>
+      </c>
+      <c r="F7">
+        <v>0.02194740934793514</v>
+      </c>
+      <c r="G7">
+        <v>0.03544653149812074</v>
+      </c>
+      <c r="H7">
+        <v>0.08455430402471141</v>
+      </c>
+      <c r="I7">
+        <v>0.0004825375939544185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.00944572266101046</v>
+        <v>0.007797323935417571</v>
       </c>
       <c r="C8">
-        <v>0.05786872750309242</v>
+        <v>0.06389286953556061</v>
       </c>
       <c r="D8">
-        <v>-0.09210104122456533</v>
+        <v>0.004225690271241202</v>
       </c>
       <c r="E8">
-        <v>0.09398182137060582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.08509648668962644</v>
+      </c>
+      <c r="F8">
+        <v>0.03389802756142755</v>
+      </c>
+      <c r="G8">
+        <v>-0.07783383437516492</v>
+      </c>
+      <c r="H8">
+        <v>0.02034157929879928</v>
+      </c>
+      <c r="I8">
+        <v>0.02278903600320755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.01824755491534046</v>
+        <v>-0.01092020370119424</v>
       </c>
       <c r="C9">
-        <v>0.1104547442114196</v>
+        <v>0.1189801281196701</v>
       </c>
       <c r="D9">
-        <v>-0.08776545977340777</v>
+        <v>-0.008346455190061469</v>
       </c>
       <c r="E9">
-        <v>0.05599846961299713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.07921324493812469</v>
+      </c>
+      <c r="F9">
+        <v>0.01497723391295626</v>
+      </c>
+      <c r="G9">
+        <v>-0.01467383440212756</v>
+      </c>
+      <c r="H9">
+        <v>0.09950566189521241</v>
+      </c>
+      <c r="I9">
+        <v>-0.01504456038286764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2364425217607145</v>
+        <v>-0.2449846651746603</v>
       </c>
       <c r="C10">
-        <v>-0.09466486728395146</v>
+        <v>-0.08116224352811238</v>
       </c>
       <c r="D10">
-        <v>0.003481283919016755</v>
+        <v>0.005182225772506599</v>
       </c>
       <c r="E10">
-        <v>-0.08999751701312525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01283870832616473</v>
+      </c>
+      <c r="F10">
+        <v>0.008093413177352963</v>
+      </c>
+      <c r="G10">
+        <v>0.006746175491342965</v>
+      </c>
+      <c r="H10">
+        <v>0.0241403722164569</v>
+      </c>
+      <c r="I10">
+        <v>0.1697765669534139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.005857876151117407</v>
+        <v>-0.01142225101153929</v>
       </c>
       <c r="C11">
-        <v>0.04720234159299817</v>
+        <v>0.07082280277866128</v>
       </c>
       <c r="D11">
-        <v>-0.04379099847055117</v>
+        <v>0.001367095244414392</v>
       </c>
       <c r="E11">
-        <v>0.03447240772677221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.05331765967746137</v>
+      </c>
+      <c r="F11">
+        <v>0.01402164307833383</v>
+      </c>
+      <c r="G11">
+        <v>0.02796885829118663</v>
+      </c>
+      <c r="H11">
+        <v>0.03923396017466142</v>
+      </c>
+      <c r="I11">
+        <v>0.01125182683589717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.01171698587216278</v>
+        <v>-0.01392510996381904</v>
       </c>
       <c r="C12">
-        <v>0.05295255538029436</v>
+        <v>0.06062344828320061</v>
       </c>
       <c r="D12">
-        <v>-0.03992121429483402</v>
+        <v>-0.005981675259770982</v>
       </c>
       <c r="E12">
-        <v>0.02298650976486379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03964649535234204</v>
+      </c>
+      <c r="F12">
+        <v>-0.01519562942116889</v>
+      </c>
+      <c r="G12">
+        <v>0.03017927632252091</v>
+      </c>
+      <c r="H12">
+        <v>0.0413551425479589</v>
+      </c>
+      <c r="I12">
+        <v>0.02758306376091119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.004838622919471264</v>
+        <v>-0.002484659575112582</v>
       </c>
       <c r="C13">
-        <v>0.06124820164067158</v>
+        <v>0.09584423748294035</v>
       </c>
       <c r="D13">
-        <v>-0.1279211922667099</v>
+        <v>-0.04920553795982402</v>
       </c>
       <c r="E13">
-        <v>0.126300352903082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1596509700260148</v>
+      </c>
+      <c r="F13">
+        <v>-0.09404512359314633</v>
+      </c>
+      <c r="G13">
+        <v>0.02108651022309429</v>
+      </c>
+      <c r="H13">
+        <v>0.08835321681460356</v>
+      </c>
+      <c r="I13">
+        <v>0.1063936283980869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004882596054681524</v>
+        <v>-0.007203533634174807</v>
       </c>
       <c r="C14">
-        <v>0.03036123543067594</v>
+        <v>0.05745850711442805</v>
       </c>
       <c r="D14">
-        <v>-0.05326923907064707</v>
+        <v>0.00395322074107615</v>
       </c>
       <c r="E14">
-        <v>0.06247210231419691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.1018672307759507</v>
+      </c>
+      <c r="F14">
+        <v>-0.02928560139972511</v>
+      </c>
+      <c r="G14">
+        <v>0.04733877343873174</v>
+      </c>
+      <c r="H14">
+        <v>0.1555101577216228</v>
+      </c>
+      <c r="I14">
+        <v>-0.02503001062321884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.004017451518994824</v>
+        <v>0.003935743009500296</v>
       </c>
       <c r="C15">
-        <v>0.03728790937385545</v>
+        <v>0.05612547212964602</v>
       </c>
       <c r="D15">
-        <v>-0.08121334907931957</v>
+        <v>-0.01304577286854022</v>
       </c>
       <c r="E15">
-        <v>0.0706301886449823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.07937045440447257</v>
+      </c>
+      <c r="F15">
+        <v>0.01101451160561361</v>
+      </c>
+      <c r="G15">
+        <v>0.01298610635880423</v>
+      </c>
+      <c r="H15">
+        <v>0.05227482052295993</v>
+      </c>
+      <c r="I15">
+        <v>0.01578538753250658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.005894278952129755</v>
+        <v>-0.01024738230411572</v>
       </c>
       <c r="C16">
-        <v>0.04670212738831617</v>
+        <v>0.06176564760806774</v>
       </c>
       <c r="D16">
-        <v>-0.03193128077235659</v>
+        <v>-0.003809297370057405</v>
       </c>
       <c r="E16">
-        <v>0.02820398010585273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0372634910402129</v>
+      </c>
+      <c r="F16">
+        <v>-0.001302805726527752</v>
+      </c>
+      <c r="G16">
+        <v>0.02859906818265245</v>
+      </c>
+      <c r="H16">
+        <v>0.0392468175306644</v>
+      </c>
+      <c r="I16">
+        <v>0.005749082990418585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.002559569221908539</v>
+        <v>0.0009905147229313585</v>
       </c>
       <c r="C19">
-        <v>0.002677527406813902</v>
+        <v>0.002525063499983066</v>
       </c>
       <c r="D19">
-        <v>-0.02467081841086052</v>
+        <v>-0.005200258287447756</v>
       </c>
       <c r="E19">
-        <v>0.01324754432772307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01698248342013539</v>
+      </c>
+      <c r="F19">
+        <v>-0.001943903741113079</v>
+      </c>
+      <c r="G19">
+        <v>0.004756449390854167</v>
+      </c>
+      <c r="H19">
+        <v>0.01167824076482632</v>
+      </c>
+      <c r="I19">
+        <v>0.01563922341273733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.00470196790702673</v>
+        <v>-0.003045366800137879</v>
       </c>
       <c r="C20">
-        <v>0.04283487496187995</v>
+        <v>0.06863298135468121</v>
       </c>
       <c r="D20">
-        <v>-0.08402694268261549</v>
+        <v>-0.02099556556357921</v>
       </c>
       <c r="E20">
-        <v>0.04275654647521022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.07710686869072046</v>
+      </c>
+      <c r="F20">
+        <v>0.01889338269560857</v>
+      </c>
+      <c r="G20">
+        <v>0.05740988962616763</v>
+      </c>
+      <c r="H20">
+        <v>0.06721308676869843</v>
+      </c>
+      <c r="I20">
+        <v>0.01116672727612384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.001157051079857889</v>
+        <v>-0.004014697903325207</v>
       </c>
       <c r="C21">
-        <v>0.06421804937795698</v>
+        <v>0.07047732015542932</v>
       </c>
       <c r="D21">
-        <v>-0.1053319465899614</v>
+        <v>-0.01785049504556513</v>
       </c>
       <c r="E21">
-        <v>0.06515837122583748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.1007118727645838</v>
+      </c>
+      <c r="F21">
+        <v>-0.08134216563258802</v>
+      </c>
+      <c r="G21">
+        <v>-0.0250453689825544</v>
+      </c>
+      <c r="H21">
+        <v>0.1803728597446404</v>
+      </c>
+      <c r="I21">
+        <v>0.01935090289916825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.007016451023399431</v>
+        <v>0.01353323671782857</v>
       </c>
       <c r="C22">
-        <v>0.07895589477274423</v>
+        <v>0.1154952755343978</v>
       </c>
       <c r="D22">
-        <v>-0.2652167282732761</v>
+        <v>-0.09748145429690468</v>
       </c>
       <c r="E22">
-        <v>0.09594140356884792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.2765491755320686</v>
+      </c>
+      <c r="F22">
+        <v>0.1400672659027969</v>
+      </c>
+      <c r="G22">
+        <v>-0.3267722644016269</v>
+      </c>
+      <c r="H22">
+        <v>-0.4205025358481435</v>
+      </c>
+      <c r="I22">
+        <v>0.01207390663112092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.00729373469135515</v>
+        <v>0.01020309884908305</v>
       </c>
       <c r="C23">
-        <v>0.08048997202718895</v>
+        <v>0.1189968097878944</v>
       </c>
       <c r="D23">
-        <v>-0.2639172883048582</v>
+        <v>-0.100204113880895</v>
       </c>
       <c r="E23">
-        <v>0.09518963536729251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.2727383216303329</v>
+      </c>
+      <c r="F23">
+        <v>0.1337290940375665</v>
+      </c>
+      <c r="G23">
+        <v>-0.3175061528660211</v>
+      </c>
+      <c r="H23">
+        <v>-0.392995266666665</v>
+      </c>
+      <c r="I23">
+        <v>0.01364891141777081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.006138907824614598</v>
+        <v>-0.01241328147119629</v>
       </c>
       <c r="C24">
-        <v>0.07265316176018477</v>
+        <v>0.07826803040817552</v>
       </c>
       <c r="D24">
-        <v>-0.03712931762637237</v>
+        <v>0.006338743514029045</v>
       </c>
       <c r="E24">
-        <v>0.03852947412490747</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04656069376064377</v>
+      </c>
+      <c r="F24">
+        <v>0.006824984856027509</v>
+      </c>
+      <c r="G24">
+        <v>0.02754388857453234</v>
+      </c>
+      <c r="H24">
+        <v>0.05720499494697803</v>
+      </c>
+      <c r="I24">
+        <v>0.01518876103524995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.01190832168324139</v>
+        <v>-0.01746012051519525</v>
       </c>
       <c r="C25">
-        <v>0.06305133721784387</v>
+        <v>0.07202080278462764</v>
       </c>
       <c r="D25">
-        <v>-0.03606877155477614</v>
+        <v>-0.0004510409041703937</v>
       </c>
       <c r="E25">
-        <v>0.01705016878340804</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0366260685534081</v>
+      </c>
+      <c r="F25">
+        <v>0.009425411618861308</v>
+      </c>
+      <c r="G25">
+        <v>0.02411326912802383</v>
+      </c>
+      <c r="H25">
+        <v>0.03897645535312139</v>
+      </c>
+      <c r="I25">
+        <v>0.01814077041396298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.003004179412502139</v>
+        <v>-0.01676759365306672</v>
       </c>
       <c r="C26">
-        <v>0.03535866953471175</v>
+        <v>0.05393424325911083</v>
       </c>
       <c r="D26">
-        <v>-0.05784840939076934</v>
+        <v>0.02288013080382924</v>
       </c>
       <c r="E26">
-        <v>0.05856299001279283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.08365356864419793</v>
+      </c>
+      <c r="F26">
+        <v>0.001201197389661578</v>
+      </c>
+      <c r="G26">
+        <v>0.01596020343391627</v>
+      </c>
+      <c r="H26">
+        <v>0.1312739142387384</v>
+      </c>
+      <c r="I26">
+        <v>0.03048245915614245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3131534152563408</v>
+        <v>-0.3122352497278791</v>
       </c>
       <c r="C28">
-        <v>-0.1133527385266358</v>
+        <v>-0.1033668266631969</v>
       </c>
       <c r="D28">
-        <v>0.003379516608779433</v>
+        <v>-0.006944154090075434</v>
       </c>
       <c r="E28">
-        <v>-0.06804645804691588</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.01918915428251286</v>
+      </c>
+      <c r="F28">
+        <v>0.04381072527956162</v>
+      </c>
+      <c r="G28">
+        <v>-0.0723061314667201</v>
+      </c>
+      <c r="H28">
+        <v>0.06293569041099221</v>
+      </c>
+      <c r="I28">
+        <v>0.1454887725773636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0006291001740541997</v>
+        <v>-0.004756541508156456</v>
       </c>
       <c r="C29">
-        <v>0.03635380678652615</v>
+        <v>0.06374631198801599</v>
       </c>
       <c r="D29">
-        <v>-0.06948694360244886</v>
+        <v>-0.007143871768395395</v>
       </c>
       <c r="E29">
-        <v>0.08131571236550419</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1179836865384553</v>
+      </c>
+      <c r="F29">
+        <v>-0.04239822014035988</v>
+      </c>
+      <c r="G29">
+        <v>0.06865904581503086</v>
+      </c>
+      <c r="H29">
+        <v>0.1972118541256292</v>
+      </c>
+      <c r="I29">
+        <v>-0.04882102539665853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.0210419815981014</v>
+        <v>-0.02037026001440613</v>
       </c>
       <c r="C30">
-        <v>0.125183375534178</v>
+        <v>0.1360262658576046</v>
       </c>
       <c r="D30">
-        <v>-0.1279719431152438</v>
+        <v>-0.01214604140623669</v>
       </c>
       <c r="E30">
-        <v>0.09621714982471348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1178935604022344</v>
+      </c>
+      <c r="F30">
+        <v>0.02623666682099729</v>
+      </c>
+      <c r="G30">
+        <v>-0.01754960425492827</v>
+      </c>
+      <c r="H30">
+        <v>0.03254254662970081</v>
+      </c>
+      <c r="I30">
+        <v>-0.02182095870457422</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.003069888829846218</v>
+        <v>-0.007931074585980726</v>
       </c>
       <c r="C31">
-        <v>0.09531629297859037</v>
+        <v>0.09959481170246078</v>
       </c>
       <c r="D31">
-        <v>0.001601478237744618</v>
+        <v>0.01808535467964134</v>
       </c>
       <c r="E31">
-        <v>0.02571570039090479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01277978778701409</v>
+      </c>
+      <c r="F31">
+        <v>-0.0003008938263255387</v>
+      </c>
+      <c r="G31">
+        <v>-0.01979020641077152</v>
+      </c>
+      <c r="H31">
+        <v>0.05602092805956436</v>
+      </c>
+      <c r="I31">
+        <v>0.0240095613231328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01601096985098189</v>
+        <v>-0.01803729662072542</v>
       </c>
       <c r="C32">
-        <v>0.05817449405531765</v>
+        <v>0.06291288986050177</v>
       </c>
       <c r="D32">
-        <v>-0.1424824847043328</v>
+        <v>-0.02663619643468972</v>
       </c>
       <c r="E32">
-        <v>0.04965690928691829</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.1077524974225035</v>
+      </c>
+      <c r="F32">
+        <v>-0.02534755021617341</v>
+      </c>
+      <c r="G32">
+        <v>-0.04701333212393194</v>
+      </c>
+      <c r="H32">
+        <v>0.08964532980971927</v>
+      </c>
+      <c r="I32">
+        <v>0.2077030827807172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.000364045943721543</v>
+        <v>-0.007769406696021142</v>
       </c>
       <c r="C33">
-        <v>0.07609588170143751</v>
+        <v>0.1002484747477484</v>
       </c>
       <c r="D33">
-        <v>-0.0685205148803204</v>
+        <v>-0.01284835473999838</v>
       </c>
       <c r="E33">
-        <v>0.0564977565609799</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.08357221646464408</v>
+      </c>
+      <c r="F33">
+        <v>0.0006975453225233963</v>
+      </c>
+      <c r="G33">
+        <v>0.02252492225302761</v>
+      </c>
+      <c r="H33">
+        <v>0.05998668921747707</v>
+      </c>
+      <c r="I33">
+        <v>0.03290510321795551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.0009832944755964986</v>
+        <v>-0.01068844144754947</v>
       </c>
       <c r="C34">
-        <v>0.05755297089208261</v>
+        <v>0.05834453770539853</v>
       </c>
       <c r="D34">
-        <v>-0.03526990514503676</v>
+        <v>0.003796054302712985</v>
       </c>
       <c r="E34">
-        <v>0.02074100998936776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03504218185037634</v>
+      </c>
+      <c r="F34">
+        <v>-0.008157240820173847</v>
+      </c>
+      <c r="G34">
+        <v>0.03263552939506782</v>
+      </c>
+      <c r="H34">
+        <v>0.01408347838363384</v>
+      </c>
+      <c r="I34">
+        <v>0.04633851188313989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.0009671713795462467</v>
+        <v>-0.00601323486991789</v>
       </c>
       <c r="C35">
-        <v>0.003828373642199474</v>
+        <v>0.02848949715146111</v>
       </c>
       <c r="D35">
-        <v>-0.01091992076473698</v>
+        <v>-0.004722727713453248</v>
       </c>
       <c r="E35">
-        <v>0.004002628436624788</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.04492679463202705</v>
+      </c>
+      <c r="F35">
+        <v>-0.007046963974889476</v>
+      </c>
+      <c r="G35">
+        <v>0.03083926405964699</v>
+      </c>
+      <c r="H35">
+        <v>0.1122796258588132</v>
+      </c>
+      <c r="I35">
+        <v>-0.008862801635385434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.003306492214912501</v>
+        <v>-0.009672470582492518</v>
       </c>
       <c r="C36">
-        <v>0.03345258804223535</v>
+        <v>0.04492642360991832</v>
       </c>
       <c r="D36">
-        <v>-0.0479628675765633</v>
+        <v>0.01026470332793769</v>
       </c>
       <c r="E36">
-        <v>0.06528843305785065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.07277269169848997</v>
+      </c>
+      <c r="F36">
+        <v>0.001163773148014844</v>
+      </c>
+      <c r="G36">
+        <v>0.01058254869290416</v>
+      </c>
+      <c r="H36">
+        <v>0.0765337126258509</v>
+      </c>
+      <c r="I36">
+        <v>0.0105946959330806</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.004846844980285586</v>
+        <v>-0.005725070115763077</v>
       </c>
       <c r="C38">
-        <v>0.02654906219878886</v>
+        <v>0.0512253177145291</v>
       </c>
       <c r="D38">
-        <v>-0.05276246762734482</v>
+        <v>-0.006653151131474502</v>
       </c>
       <c r="E38">
-        <v>0.04404833466310091</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.07399106708606121</v>
+      </c>
+      <c r="F38">
+        <v>0.05029701726329092</v>
+      </c>
+      <c r="G38">
+        <v>0.003168800967610334</v>
+      </c>
+      <c r="H38">
+        <v>0.06037427223303037</v>
+      </c>
+      <c r="I38">
+        <v>0.06172138373798295</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.009103766000509026</v>
+        <v>-0.0104586700404111</v>
       </c>
       <c r="C39">
-        <v>0.09571541565060632</v>
+        <v>0.1172217640163498</v>
       </c>
       <c r="D39">
-        <v>-0.09315946807277249</v>
+        <v>0.005543523899035652</v>
       </c>
       <c r="E39">
-        <v>0.06883603007662606</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08357361406663752</v>
+      </c>
+      <c r="F39">
+        <v>-0.00917405917760269</v>
+      </c>
+      <c r="G39">
+        <v>0.03846734090862646</v>
+      </c>
+      <c r="H39">
+        <v>0.0530808069785985</v>
+      </c>
+      <c r="I39">
+        <v>-0.02951108926946517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.002657995473579138</v>
+        <v>-0.01050428929655355</v>
       </c>
       <c r="C40">
-        <v>0.02737912337781458</v>
+        <v>0.05674988664193614</v>
       </c>
       <c r="D40">
-        <v>-0.08035270819009541</v>
+        <v>-0.02213078652816825</v>
       </c>
       <c r="E40">
-        <v>0.1058156932325676</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.1311923481828496</v>
+      </c>
+      <c r="F40">
+        <v>-0.02469762468846695</v>
+      </c>
+      <c r="G40">
+        <v>0.05544425032596589</v>
+      </c>
+      <c r="H40">
+        <v>-0.003720317373900096</v>
+      </c>
+      <c r="I40">
+        <v>0.0463323780331272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.006205672864085885</v>
+        <v>-0.01691091625472021</v>
       </c>
       <c r="C41">
-        <v>0.02925286350593045</v>
+        <v>0.04808084150711086</v>
       </c>
       <c r="D41">
-        <v>-0.008548915747630101</v>
+        <v>-0.002413723466566902</v>
       </c>
       <c r="E41">
-        <v>-0.009327136973163961</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01187192926961601</v>
+      </c>
+      <c r="F41">
+        <v>0.00533904246696414</v>
+      </c>
+      <c r="G41">
+        <v>0.01588999772846118</v>
+      </c>
+      <c r="H41">
+        <v>0.03223788974807499</v>
+      </c>
+      <c r="I41">
+        <v>0.06035530565866914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005254462874586021</v>
+        <v>-0.008592206548395324</v>
       </c>
       <c r="C43">
-        <v>0.0256493742769341</v>
+        <v>0.04185699222126957</v>
       </c>
       <c r="D43">
-        <v>-0.02464878359962123</v>
+        <v>0.005052642610522576</v>
       </c>
       <c r="E43">
-        <v>0.01366380672161751</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0367409163556766</v>
+      </c>
+      <c r="F43">
+        <v>0.01397328972395984</v>
+      </c>
+      <c r="G43">
+        <v>0.02144250222852801</v>
+      </c>
+      <c r="H43">
+        <v>0.04927125076352359</v>
+      </c>
+      <c r="I43">
+        <v>0.03478313239450558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01641078681855601</v>
+        <v>-0.006770992832627148</v>
       </c>
       <c r="C44">
-        <v>0.0659169171572159</v>
+        <v>0.08262133405359491</v>
       </c>
       <c r="D44">
-        <v>-0.09868394489070066</v>
+        <v>0.00356777983171152</v>
       </c>
       <c r="E44">
-        <v>0.06714820667003706</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1061128076125687</v>
+      </c>
+      <c r="F44">
+        <v>0.01294338347917461</v>
+      </c>
+      <c r="G44">
+        <v>-0.01293227868071888</v>
+      </c>
+      <c r="H44">
+        <v>0.03168354907524434</v>
+      </c>
+      <c r="I44">
+        <v>-0.00889687651700824</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.001984764701982151</v>
+        <v>0.0008516599838091758</v>
       </c>
       <c r="C46">
-        <v>0.04376946410366218</v>
+        <v>0.05701932477204489</v>
       </c>
       <c r="D46">
-        <v>-0.06519365569190359</v>
+        <v>0.004112356545590304</v>
       </c>
       <c r="E46">
-        <v>0.09009390410411967</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.08532641729618219</v>
+      </c>
+      <c r="F46">
+        <v>-0.0009739147002580998</v>
+      </c>
+      <c r="G46">
+        <v>0.04404514105069256</v>
+      </c>
+      <c r="H46">
+        <v>0.1219797046318203</v>
+      </c>
+      <c r="I46">
+        <v>-0.00977569130954249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.03066476111005983</v>
+        <v>-0.02586062356349671</v>
       </c>
       <c r="C47">
-        <v>0.1256477425945109</v>
+        <v>0.1137616039523908</v>
       </c>
       <c r="D47">
-        <v>-0.007558274162024479</v>
+        <v>0.01906213920328651</v>
       </c>
       <c r="E47">
-        <v>-0.02622413466581539</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.001054966517468145</v>
+      </c>
+      <c r="F47">
+        <v>0.0130081572165353</v>
+      </c>
+      <c r="G47">
+        <v>-0.0009222618125837701</v>
+      </c>
+      <c r="H47">
+        <v>0.08145515963133523</v>
+      </c>
+      <c r="I47">
+        <v>0.04200984958343905</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007688574539316091</v>
+        <v>-0.01478189788523788</v>
       </c>
       <c r="C48">
-        <v>0.03796097605573521</v>
+        <v>0.05128915867864821</v>
       </c>
       <c r="D48">
-        <v>-0.04322630353174062</v>
+        <v>0.0208970388046755</v>
       </c>
       <c r="E48">
-        <v>0.08636801090799796</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.08113897942599411</v>
+      </c>
+      <c r="F48">
+        <v>0.007983931808752525</v>
+      </c>
+      <c r="G48">
+        <v>0.01182267096220071</v>
+      </c>
+      <c r="H48">
+        <v>0.1304186674317406</v>
+      </c>
+      <c r="I48">
+        <v>0.01234571036516836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.003892184034415768</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.007735862859720707</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.009089982902159583</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.001138466549037362</v>
+      </c>
+      <c r="F49">
+        <v>-0.007892441205087031</v>
+      </c>
+      <c r="G49">
+        <v>0.0199482436484844</v>
+      </c>
+      <c r="H49">
+        <v>-0.004983051979600595</v>
+      </c>
+      <c r="I49">
+        <v>-0.004790023855967353</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.008093808162263058</v>
+        <v>-0.01078092877310885</v>
       </c>
       <c r="C50">
-        <v>0.06178140115252979</v>
+        <v>0.07577881557892557</v>
       </c>
       <c r="D50">
-        <v>-0.02408525493289112</v>
+        <v>-0.002805021799695215</v>
       </c>
       <c r="E50">
-        <v>0.0245674921589053</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02690413501438109</v>
+      </c>
+      <c r="F50">
+        <v>0.012825553888982</v>
+      </c>
+      <c r="G50">
+        <v>-0.01046166310729598</v>
+      </c>
+      <c r="H50">
+        <v>0.0573496248128289</v>
+      </c>
+      <c r="I50">
+        <v>0.04052729298631794</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.0001071300615450492</v>
+        <v>0.006034380739240224</v>
       </c>
       <c r="C51">
-        <v>0.02295327399563084</v>
+        <v>0.03046852019415135</v>
       </c>
       <c r="D51">
-        <v>-0.08235111677316981</v>
+        <v>-0.005723682684083523</v>
       </c>
       <c r="E51">
-        <v>0.06691685055605898</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.07013681133558618</v>
+      </c>
+      <c r="F51">
+        <v>-0.004271346411894373</v>
+      </c>
+      <c r="G51">
+        <v>-0.01236501372387897</v>
+      </c>
+      <c r="H51">
+        <v>0.1108413242370044</v>
+      </c>
+      <c r="I51">
+        <v>-0.022805577812148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.06825287759452306</v>
+        <v>-0.05872882661856206</v>
       </c>
       <c r="C53">
-        <v>0.1601811763431017</v>
+        <v>0.1566110633074625</v>
       </c>
       <c r="D53">
-        <v>0.03986262491353727</v>
+        <v>0.04369281644082919</v>
       </c>
       <c r="E53">
-        <v>-0.02612726209725641</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.07328451078285948</v>
+      </c>
+      <c r="F53">
+        <v>0.01125849298652584</v>
+      </c>
+      <c r="G53">
+        <v>-0.01964082499300572</v>
+      </c>
+      <c r="H53">
+        <v>0.01559413025091632</v>
+      </c>
+      <c r="I53">
+        <v>0.03282717290205503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.007094414799652954</v>
+        <v>-0.01402981468173076</v>
       </c>
       <c r="C54">
-        <v>0.04214674234156677</v>
+        <v>0.0597927582668082</v>
       </c>
       <c r="D54">
-        <v>-0.07008048327882428</v>
+        <v>-0.02636060746075443</v>
       </c>
       <c r="E54">
-        <v>0.01876537510016964</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.05377278118154493</v>
+      </c>
+      <c r="F54">
+        <v>0.01043181854654102</v>
+      </c>
+      <c r="G54">
+        <v>0.006762232543566326</v>
+      </c>
+      <c r="H54">
+        <v>0.09374317863545212</v>
+      </c>
+      <c r="I54">
+        <v>-0.02448098050996367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.04858903378291408</v>
+        <v>-0.0361402738611068</v>
       </c>
       <c r="C55">
-        <v>0.1207390257914869</v>
+        <v>0.1123090531509775</v>
       </c>
       <c r="D55">
-        <v>0.0450809779322096</v>
+        <v>0.05134413638273943</v>
       </c>
       <c r="E55">
-        <v>-0.01033308116318716</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.05863706427199072</v>
+      </c>
+      <c r="F55">
+        <v>-0.0008425205287310604</v>
+      </c>
+      <c r="G55">
+        <v>-0.01604407088390584</v>
+      </c>
+      <c r="H55">
+        <v>0.02192477279249027</v>
+      </c>
+      <c r="I55">
+        <v>0.001834352590632563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.07505275371797036</v>
+        <v>-0.05493165997908194</v>
       </c>
       <c r="C56">
-        <v>0.188865646063083</v>
+        <v>0.1848101949669504</v>
       </c>
       <c r="D56">
-        <v>0.04600233350408733</v>
+        <v>0.05950433198371658</v>
       </c>
       <c r="E56">
-        <v>-0.05552115046203479</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.09791307189129327</v>
+      </c>
+      <c r="F56">
+        <v>0.007427249294986356</v>
+      </c>
+      <c r="G56">
+        <v>-0.05364729861945559</v>
+      </c>
+      <c r="H56">
+        <v>-0.002416937229611998</v>
+      </c>
+      <c r="I56">
+        <v>0.06101034556899835</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01105016149345338</v>
+        <v>-0.008238804570833157</v>
       </c>
       <c r="C58">
-        <v>0.1023832604587136</v>
+        <v>0.1359061560230349</v>
       </c>
       <c r="D58">
-        <v>-0.2711504377796298</v>
+        <v>-0.08124294006787817</v>
       </c>
       <c r="E58">
-        <v>0.08767855596467941</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2345931434453393</v>
+      </c>
+      <c r="F58">
+        <v>0.08160998040270426</v>
+      </c>
+      <c r="G58">
+        <v>-0.2488447028418424</v>
+      </c>
+      <c r="H58">
+        <v>-0.01742592808092649</v>
+      </c>
+      <c r="I58">
+        <v>-0.08193270626182078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.246338779899661</v>
+        <v>-0.2704005612602488</v>
       </c>
       <c r="C59">
-        <v>-0.0543455763405127</v>
+        <v>-0.04614493710953665</v>
       </c>
       <c r="D59">
-        <v>-0.07355302185681463</v>
+        <v>-0.01429634074209315</v>
       </c>
       <c r="E59">
-        <v>0.001233411481971828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04610351617777943</v>
+      </c>
+      <c r="F59">
+        <v>-0.01759461459344197</v>
+      </c>
+      <c r="G59">
+        <v>-0.01925407998998077</v>
+      </c>
+      <c r="H59">
+        <v>-0.02430706479833739</v>
+      </c>
+      <c r="I59">
+        <v>0.07759510476760467</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1283686059519005</v>
+        <v>-0.146965942639688</v>
       </c>
       <c r="C60">
-        <v>0.1423822958547008</v>
+        <v>0.1601503384490152</v>
       </c>
       <c r="D60">
-        <v>-0.01877875625790392</v>
+        <v>0.006777640954592058</v>
       </c>
       <c r="E60">
-        <v>0.0581812418532372</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.03586942019676763</v>
+      </c>
+      <c r="F60">
+        <v>-0.1239966252158407</v>
+      </c>
+      <c r="G60">
+        <v>0.2862462271737351</v>
+      </c>
+      <c r="H60">
+        <v>-0.2865405651158632</v>
+      </c>
+      <c r="I60">
+        <v>-0.07793437510717241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.01388526499529932</v>
+        <v>-0.01684544371164371</v>
       </c>
       <c r="C61">
-        <v>0.07538139116923644</v>
+        <v>0.09806352349955455</v>
       </c>
       <c r="D61">
-        <v>-0.0520384310800347</v>
+        <v>0.008330845713077279</v>
       </c>
       <c r="E61">
-        <v>0.0511459310024316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.05987444896264184</v>
+      </c>
+      <c r="F61">
+        <v>0.003043993301092917</v>
+      </c>
+      <c r="G61">
+        <v>0.04632483016006306</v>
+      </c>
+      <c r="H61">
+        <v>0.05678156407048555</v>
+      </c>
+      <c r="I61">
+        <v>0.009936623621526468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0006784154152174199</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0007612581414142424</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.0001188396189074934</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.0009461810921554283</v>
+      </c>
+      <c r="F62">
+        <v>0.001071072483233967</v>
+      </c>
+      <c r="G62">
+        <v>-0.002319377456236353</v>
+      </c>
+      <c r="H62">
+        <v>0.005369128155857846</v>
+      </c>
+      <c r="I62">
+        <v>0.0002480796825587882</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.002951322093995192</v>
+        <v>-0.01646447529829756</v>
       </c>
       <c r="C63">
-        <v>0.05435464991264126</v>
+        <v>0.06928408331259284</v>
       </c>
       <c r="D63">
-        <v>-0.05195697912085524</v>
+        <v>0.0158677872445947</v>
       </c>
       <c r="E63">
-        <v>0.03537638809616736</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.06564151815268238</v>
+      </c>
+      <c r="F63">
+        <v>-0.00305034428007023</v>
+      </c>
+      <c r="G63">
+        <v>0.02930804486971636</v>
+      </c>
+      <c r="H63">
+        <v>0.08145574383961161</v>
+      </c>
+      <c r="I63">
+        <v>0.03180819056578237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.01935902843319438</v>
+        <v>-0.01553115407046728</v>
       </c>
       <c r="C64">
-        <v>0.125859888087725</v>
+        <v>0.112514856943187</v>
       </c>
       <c r="D64">
-        <v>0.01074118525546546</v>
+        <v>0.01988142494990862</v>
       </c>
       <c r="E64">
-        <v>0.05901059713866618</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01727853301852354</v>
+      </c>
+      <c r="F64">
+        <v>0.01832359653067602</v>
+      </c>
+      <c r="G64">
+        <v>0.02251671629162714</v>
+      </c>
+      <c r="H64">
+        <v>0.005792138088329583</v>
+      </c>
+      <c r="I64">
+        <v>-0.05710162081174325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.013341757935671</v>
+        <v>-0.02227416633754015</v>
       </c>
       <c r="C65">
-        <v>0.05111175091861671</v>
+        <v>0.07388806738100806</v>
       </c>
       <c r="D65">
-        <v>-0.07868971379837529</v>
+        <v>-0.03128164245863251</v>
       </c>
       <c r="E65">
-        <v>0.06345075757105816</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.1044348288700056</v>
+      </c>
+      <c r="F65">
+        <v>0.002552755976345732</v>
+      </c>
+      <c r="G65">
+        <v>0.07527218192215995</v>
+      </c>
+      <c r="H65">
+        <v>-0.005256404003255404</v>
+      </c>
+      <c r="I65">
+        <v>-0.06967279874206443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.008360658132264767</v>
+        <v>-0.009713001035355466</v>
       </c>
       <c r="C66">
-        <v>0.1142001453626357</v>
+        <v>0.1422594943586309</v>
       </c>
       <c r="D66">
-        <v>-0.1289222878756591</v>
+        <v>-0.02311283885326414</v>
       </c>
       <c r="E66">
-        <v>0.07608384502689136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.102164298350143</v>
+      </c>
+      <c r="F66">
+        <v>0.002164085556547265</v>
+      </c>
+      <c r="G66">
+        <v>0.0195374307443434</v>
+      </c>
+      <c r="H66">
+        <v>0.04633897074284044</v>
+      </c>
+      <c r="I66">
+        <v>-0.006560570771098287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01701433257515909</v>
+        <v>-0.01715498084201977</v>
       </c>
       <c r="C67">
-        <v>0.02884619827035705</v>
+        <v>0.0495666119371944</v>
       </c>
       <c r="D67">
-        <v>-0.004427848573077733</v>
+        <v>0.01380420167164407</v>
       </c>
       <c r="E67">
-        <v>0.0327671116602606</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.04340396430759787</v>
+      </c>
+      <c r="F67">
+        <v>0.03934655662841743</v>
+      </c>
+      <c r="G67">
+        <v>0.0377893970856005</v>
+      </c>
+      <c r="H67">
+        <v>0.03917479827014092</v>
+      </c>
+      <c r="I67">
+        <v>0.05006267803602527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2483120627520244</v>
+        <v>-0.2820704092639371</v>
       </c>
       <c r="C68">
-        <v>-0.06686016708235071</v>
+        <v>-0.05523277976386829</v>
       </c>
       <c r="D68">
-        <v>-0.05573415890485531</v>
+        <v>-0.03904211822809538</v>
       </c>
       <c r="E68">
-        <v>-0.01269859929459031</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.03887803226512612</v>
+      </c>
+      <c r="F68">
+        <v>0.01479649273603289</v>
+      </c>
+      <c r="G68">
+        <v>-0.05237684066179404</v>
+      </c>
+      <c r="H68">
+        <v>-0.02924680108127525</v>
+      </c>
+      <c r="I68">
+        <v>0.1095591698618038</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.02762529618100763</v>
+        <v>-0.0138593232604577</v>
       </c>
       <c r="C69">
-        <v>0.1357051098528223</v>
+        <v>0.1034225856308405</v>
       </c>
       <c r="D69">
-        <v>0.008094541388339531</v>
+        <v>0.03717612176039997</v>
       </c>
       <c r="E69">
-        <v>0.0280131951838897</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.006321551417294532</v>
+      </c>
+      <c r="F69">
+        <v>0.00901600567207882</v>
+      </c>
+      <c r="G69">
+        <v>0.002850774220996039</v>
+      </c>
+      <c r="H69">
+        <v>0.04664651452672741</v>
+      </c>
+      <c r="I69">
+        <v>0.0362987685049919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2612493093805469</v>
+        <v>-0.2696600246711001</v>
       </c>
       <c r="C71">
-        <v>-0.08642113619866491</v>
+        <v>-0.07366188280745153</v>
       </c>
       <c r="D71">
-        <v>-0.04876501000815119</v>
+        <v>-0.01916883439422248</v>
       </c>
       <c r="E71">
-        <v>-0.03652733268157518</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03610047847206863</v>
+      </c>
+      <c r="F71">
+        <v>0.0322134644849455</v>
+      </c>
+      <c r="G71">
+        <v>-0.009239965551311298</v>
+      </c>
+      <c r="H71">
+        <v>0.05745148331928541</v>
+      </c>
+      <c r="I71">
+        <v>0.1277432804804718</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.06700164519550256</v>
+        <v>-0.06102988845931753</v>
       </c>
       <c r="C72">
-        <v>0.1513186170785764</v>
+        <v>0.1480545394820645</v>
       </c>
       <c r="D72">
-        <v>-0.04004132554275575</v>
+        <v>0.01397220883287081</v>
       </c>
       <c r="E72">
-        <v>0.1132015466769323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.02657152515588155</v>
+      </c>
+      <c r="F72">
+        <v>-0.01267865009698285</v>
+      </c>
+      <c r="G72">
+        <v>0.0372726087372407</v>
+      </c>
+      <c r="H72">
+        <v>-0.03752162131245535</v>
+      </c>
+      <c r="I72">
+        <v>-0.1026698061582184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1107274759373922</v>
+        <v>-0.1452352135709689</v>
       </c>
       <c r="C73">
-        <v>0.1535577803848937</v>
+        <v>0.1922437598981861</v>
       </c>
       <c r="D73">
-        <v>-0.01165799399222072</v>
+        <v>0.02571176334169917</v>
       </c>
       <c r="E73">
-        <v>0.0949140147908749</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06267820377784654</v>
+      </c>
+      <c r="F73">
+        <v>-0.1498915789481678</v>
+      </c>
+      <c r="G73">
+        <v>0.4316572529176135</v>
+      </c>
+      <c r="H73">
+        <v>-0.2544459031483858</v>
+      </c>
+      <c r="I73">
+        <v>-0.07274394735917254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.04946205028570105</v>
+        <v>-0.04246911221543775</v>
       </c>
       <c r="C74">
-        <v>0.1167923520492665</v>
+        <v>0.1165390427677872</v>
       </c>
       <c r="D74">
-        <v>0.06931365777832119</v>
+        <v>0.05114262366016589</v>
       </c>
       <c r="E74">
-        <v>-0.01154510525271702</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.06015391065637048</v>
+      </c>
+      <c r="F74">
+        <v>0.01642472290810297</v>
+      </c>
+      <c r="G74">
+        <v>-0.01017327005656654</v>
+      </c>
+      <c r="H74">
+        <v>0.02129340114576475</v>
+      </c>
+      <c r="I74">
+        <v>-0.005907846275171827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1377242522474203</v>
+        <v>-0.08619658716430638</v>
       </c>
       <c r="C75">
-        <v>0.2507678327068963</v>
+        <v>0.2292329054224189</v>
       </c>
       <c r="D75">
-        <v>0.1555104991809025</v>
+        <v>0.1009204800170812</v>
       </c>
       <c r="E75">
-        <v>-0.111114576891197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.2150848955578575</v>
+      </c>
+      <c r="F75">
+        <v>0.1016733587288334</v>
+      </c>
+      <c r="G75">
+        <v>-0.06268624577186377</v>
+      </c>
+      <c r="H75">
+        <v>-0.02861081040225913</v>
+      </c>
+      <c r="I75">
+        <v>0.1653087516981292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.06622480474619535</v>
+        <v>-0.0485987590078855</v>
       </c>
       <c r="C76">
-        <v>0.1664040052285144</v>
+        <v>0.1627127630709351</v>
       </c>
       <c r="D76">
-        <v>0.06956128386111662</v>
+        <v>0.06877883848469626</v>
       </c>
       <c r="E76">
-        <v>-0.03428364679459023</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.08562604760501574</v>
+      </c>
+      <c r="F76">
+        <v>0.004766719627088565</v>
+      </c>
+      <c r="G76">
+        <v>0.009877769784424931</v>
+      </c>
+      <c r="H76">
+        <v>0.01965741163228699</v>
+      </c>
+      <c r="I76">
+        <v>0.055368966046311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.03421857654372477</v>
+        <v>-0.02803869022388902</v>
       </c>
       <c r="C77">
-        <v>0.1171306859411597</v>
+        <v>0.1717945798992765</v>
       </c>
       <c r="D77">
-        <v>-0.460964514384456</v>
+        <v>-0.9250024405692917</v>
       </c>
       <c r="E77">
-        <v>-0.7913438946289658</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.3055581179185039</v>
+      </c>
+      <c r="F77">
+        <v>0.01658371372439834</v>
+      </c>
+      <c r="G77">
+        <v>0.04963934490196311</v>
+      </c>
+      <c r="H77">
+        <v>0.05488757691185375</v>
+      </c>
+      <c r="I77">
+        <v>-0.02748263603002301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02130999489590009</v>
+        <v>-0.0247380729740846</v>
       </c>
       <c r="C78">
-        <v>0.1080512567314881</v>
+        <v>0.1112321046213612</v>
       </c>
       <c r="D78">
-        <v>-0.1294092831093342</v>
+        <v>0.02601310005746548</v>
       </c>
       <c r="E78">
-        <v>0.07198791905056608</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.09144215980240016</v>
+      </c>
+      <c r="F78">
+        <v>-0.01535122341012836</v>
+      </c>
+      <c r="G78">
+        <v>-0.0690117648897377</v>
+      </c>
+      <c r="H78">
+        <v>0.1241087211890097</v>
+      </c>
+      <c r="I78">
+        <v>-0.06488798075592149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.06938235761995291</v>
+        <v>-0.05746546438798571</v>
       </c>
       <c r="C79">
-        <v>0.285957850077717</v>
+        <v>0.2248314610412234</v>
       </c>
       <c r="D79">
-        <v>0.2855967113348541</v>
+        <v>0.128115996522929</v>
       </c>
       <c r="E79">
-        <v>-0.01219023484173828</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.2412641323837349</v>
+      </c>
+      <c r="F79">
+        <v>-0.005711016736235984</v>
+      </c>
+      <c r="G79">
+        <v>-0.1710551532679951</v>
+      </c>
+      <c r="H79">
+        <v>0.08445077283709836</v>
+      </c>
+      <c r="I79">
+        <v>-0.3644110722712566</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.006390442673571059</v>
+        <v>-0.008109400412762098</v>
       </c>
       <c r="C80">
-        <v>0.05923808428103718</v>
+        <v>0.05851761723403774</v>
       </c>
       <c r="D80">
-        <v>-0.01799321495134663</v>
+        <v>0.022707413898585</v>
       </c>
       <c r="E80">
-        <v>0.04413175465857735</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06063513579461906</v>
+      </c>
+      <c r="F80">
+        <v>-0.06844465442896223</v>
+      </c>
+      <c r="G80">
+        <v>0.03636461359874192</v>
+      </c>
+      <c r="H80">
+        <v>-0.03507297345031411</v>
+      </c>
+      <c r="I80">
+        <v>0.06165139961267214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.05205529879339628</v>
+        <v>-0.02809778707176912</v>
       </c>
       <c r="C81">
-        <v>0.1455384197064521</v>
+        <v>0.1365189213570495</v>
       </c>
       <c r="D81">
-        <v>0.08814414704547698</v>
+        <v>0.04982217570421946</v>
       </c>
       <c r="E81">
-        <v>-0.05350197872474943</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0854440447183865</v>
+      </c>
+      <c r="F81">
+        <v>0.02187013860148762</v>
+      </c>
+      <c r="G81">
+        <v>-0.04193340341100803</v>
+      </c>
+      <c r="H81">
+        <v>0.06099197699048076</v>
+      </c>
+      <c r="I81">
+        <v>0.08808791407020931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1033564767979211</v>
+        <v>-0.06520545841245633</v>
       </c>
       <c r="C82">
-        <v>0.2284664611077603</v>
+        <v>0.1880895221240602</v>
       </c>
       <c r="D82">
-        <v>0.1191777869115428</v>
+        <v>0.08971591844999514</v>
       </c>
       <c r="E82">
-        <v>-0.05332413075845648</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1392481571648311</v>
+      </c>
+      <c r="F82">
+        <v>0.005996015549140019</v>
+      </c>
+      <c r="G82">
+        <v>-0.0287373113699535</v>
+      </c>
+      <c r="H82">
+        <v>0.03641523465517453</v>
+      </c>
+      <c r="I82">
+        <v>0.1032650061879139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.00447592210447166</v>
+        <v>-0.00111370104818722</v>
       </c>
       <c r="C83">
-        <v>0.06408899299021775</v>
+        <v>0.0220980210155909</v>
       </c>
       <c r="D83">
-        <v>-0.05224707137359463</v>
+        <v>-0.03936144443169447</v>
       </c>
       <c r="E83">
-        <v>0.00650148190313727</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.001884616005770743</v>
+      </c>
+      <c r="F83">
+        <v>-0.9072552084901265</v>
+      </c>
+      <c r="G83">
+        <v>-0.300344209203847</v>
+      </c>
+      <c r="H83">
+        <v>-0.03645929973720105</v>
+      </c>
+      <c r="I83">
+        <v>0.1381227628842011</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.002536793363034553</v>
+        <v>0.003333763262659665</v>
       </c>
       <c r="C84">
-        <v>0.02025477181204341</v>
+        <v>0.03474872343534988</v>
       </c>
       <c r="D84">
-        <v>-0.0389484567854145</v>
+        <v>0.005760871415264501</v>
       </c>
       <c r="E84">
-        <v>0.05640811955540407</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.06067957168394141</v>
+      </c>
+      <c r="F84">
+        <v>0.05471483226203593</v>
+      </c>
+      <c r="G84">
+        <v>-0.06396193517790481</v>
+      </c>
+      <c r="H84">
+        <v>0.06446296432752271</v>
+      </c>
+      <c r="I84">
+        <v>-0.01636946735549879</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.06622831047020294</v>
+        <v>-0.04344216263334139</v>
       </c>
       <c r="C85">
-        <v>0.1830490638092399</v>
+        <v>0.1624033364947944</v>
       </c>
       <c r="D85">
-        <v>0.1185305161915178</v>
+        <v>0.09618300440532725</v>
       </c>
       <c r="E85">
-        <v>-0.0499552077966813</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1408644765192866</v>
+      </c>
+      <c r="F85">
+        <v>0.0157016248048351</v>
+      </c>
+      <c r="G85">
+        <v>-0.04981145007537992</v>
+      </c>
+      <c r="H85">
+        <v>0.01512524255120536</v>
+      </c>
+      <c r="I85">
+        <v>0.06279091439852191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01770480188798087</v>
+        <v>-0.01335141245983713</v>
       </c>
       <c r="C86">
-        <v>0.03837540516638015</v>
+        <v>0.06498616343000294</v>
       </c>
       <c r="D86">
-        <v>-0.1024073319941603</v>
+        <v>-0.03319543167918469</v>
       </c>
       <c r="E86">
-        <v>-0.03667693756334</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.06196063871963106</v>
+      </c>
+      <c r="F86">
+        <v>0.04554474837378465</v>
+      </c>
+      <c r="G86">
+        <v>-0.0706735932762767</v>
+      </c>
+      <c r="H86">
+        <v>0.07071660485838741</v>
+      </c>
+      <c r="I86">
+        <v>0.03284296538112713</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02268160068872745</v>
+        <v>-0.01671704842681648</v>
       </c>
       <c r="C87">
-        <v>0.08916229356224645</v>
+        <v>0.1045552472691134</v>
       </c>
       <c r="D87">
-        <v>-0.162441071847391</v>
+        <v>-0.04565113779085086</v>
       </c>
       <c r="E87">
-        <v>0.07914037384028019</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1242604048809123</v>
+      </c>
+      <c r="F87">
+        <v>0.02119085163255065</v>
+      </c>
+      <c r="G87">
+        <v>-0.05519643920685825</v>
+      </c>
+      <c r="H87">
+        <v>0.03323310530564923</v>
+      </c>
+      <c r="I87">
+        <v>-0.06517803585352872</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02886009059102878</v>
+        <v>-0.03505498971661964</v>
       </c>
       <c r="C88">
-        <v>0.0777786155957404</v>
+        <v>0.08385190054125344</v>
       </c>
       <c r="D88">
-        <v>0.03140907276738986</v>
+        <v>0.01540139823228239</v>
       </c>
       <c r="E88">
-        <v>0.007531602971120761</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.0003678545653426589</v>
+      </c>
+      <c r="F88">
+        <v>0.004472038498687789</v>
+      </c>
+      <c r="G88">
+        <v>0.0288750546904305</v>
+      </c>
+      <c r="H88">
+        <v>0.01258987201944325</v>
+      </c>
+      <c r="I88">
+        <v>0.02646011251312481</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4369092673533069</v>
+        <v>-0.4097769256814779</v>
       </c>
       <c r="C89">
-        <v>-0.1616028233229398</v>
+        <v>-0.1357862467824921</v>
       </c>
       <c r="D89">
-        <v>0.03180056992116646</v>
+        <v>-0.0008555960167242986</v>
       </c>
       <c r="E89">
-        <v>0.2583096895002013</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02863099361951987</v>
+      </c>
+      <c r="F89">
+        <v>-0.07331573010210234</v>
+      </c>
+      <c r="G89">
+        <v>-0.1354922141514979</v>
+      </c>
+      <c r="H89">
+        <v>0.09359796085065533</v>
+      </c>
+      <c r="I89">
+        <v>-0.6999480379944967</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3169553792548999</v>
+        <v>-0.3221767650308036</v>
       </c>
       <c r="C90">
-        <v>-0.1054608785127637</v>
+        <v>-0.08223257929085251</v>
       </c>
       <c r="D90">
-        <v>-0.09414732701794298</v>
+        <v>-0.02491755868404706</v>
       </c>
       <c r="E90">
-        <v>0.001720324593882054</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04971605474471847</v>
+      </c>
+      <c r="F90">
+        <v>0.01321216527524336</v>
+      </c>
+      <c r="G90">
+        <v>-0.01779035144733401</v>
+      </c>
+      <c r="H90">
+        <v>-0.02458971157827282</v>
+      </c>
+      <c r="I90">
+        <v>0.1643803572261288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.0732635325523172</v>
+        <v>-0.05926051798637141</v>
       </c>
       <c r="C91">
-        <v>0.1924946651335216</v>
+        <v>0.1591032413818531</v>
       </c>
       <c r="D91">
-        <v>0.1025746948048948</v>
+        <v>0.05327340338316225</v>
       </c>
       <c r="E91">
-        <v>-0.06037093867235749</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1287312804936585</v>
+      </c>
+      <c r="F91">
+        <v>-0.02229359209202137</v>
+      </c>
+      <c r="G91">
+        <v>-0.04368801308439436</v>
+      </c>
+      <c r="H91">
+        <v>0.01227359233228929</v>
+      </c>
+      <c r="I91">
+        <v>0.03693873930851221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3352931088856609</v>
+        <v>-0.3467360262316793</v>
       </c>
       <c r="C92">
-        <v>-0.150897269777262</v>
+        <v>-0.1292086332299565</v>
       </c>
       <c r="D92">
-        <v>-0.06228239336460319</v>
+        <v>-0.04944398935953228</v>
       </c>
       <c r="E92">
-        <v>-0.05701487099690392</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03856849640977107</v>
+      </c>
+      <c r="F92">
+        <v>0.09786510424401748</v>
+      </c>
+      <c r="G92">
+        <v>-0.01790191711832984</v>
+      </c>
+      <c r="H92">
+        <v>0.02273746256528396</v>
+      </c>
+      <c r="I92">
+        <v>0.1509389618725883</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3277134172654914</v>
+        <v>-0.3242432763461917</v>
       </c>
       <c r="C93">
-        <v>-0.1344315383485519</v>
+        <v>-0.1189734684254315</v>
       </c>
       <c r="D93">
-        <v>0.0091373246333716</v>
+        <v>0.006498140969595228</v>
       </c>
       <c r="E93">
-        <v>-0.009182503379705598</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.004254237119036884</v>
+      </c>
+      <c r="F93">
+        <v>0.01911575771497704</v>
+      </c>
+      <c r="G93">
+        <v>-0.02524259009534963</v>
+      </c>
+      <c r="H93">
+        <v>0.03734452733364313</v>
+      </c>
+      <c r="I93">
+        <v>0.07883646352395811</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1500746388292626</v>
+        <v>-0.1062034715264457</v>
       </c>
       <c r="C94">
-        <v>0.302672062967749</v>
+        <v>0.2607926843453996</v>
       </c>
       <c r="D94">
-        <v>0.2573932505510225</v>
+        <v>0.1575837786979091</v>
       </c>
       <c r="E94">
-        <v>-0.1157350673263405</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3720252810612565</v>
+      </c>
+      <c r="F94">
+        <v>0.05742983884272311</v>
+      </c>
+      <c r="G94">
+        <v>-0.2203962207652368</v>
+      </c>
+      <c r="H94">
+        <v>-0.1388176831528721</v>
+      </c>
+      <c r="I94">
+        <v>0.006662095629780756</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.03437668674734305</v>
+        <v>-0.03634255489746845</v>
       </c>
       <c r="C95">
-        <v>0.06109927781166869</v>
+        <v>0.1059131623168764</v>
       </c>
       <c r="D95">
-        <v>-0.0145237407279676</v>
+        <v>-0.01808437101323733</v>
       </c>
       <c r="E95">
-        <v>0.02070921099453918</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04140117024503212</v>
+      </c>
+      <c r="F95">
+        <v>0.02639916034100942</v>
+      </c>
+      <c r="G95">
+        <v>0.120437281533875</v>
+      </c>
+      <c r="H95">
+        <v>0.06185972489553195</v>
+      </c>
+      <c r="I95">
+        <v>0.04869526163722751</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.00384421806845093</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001970934988285727</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01535675635441898</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.004827625715015211</v>
+      </c>
+      <c r="F97">
+        <v>0.01978302076717202</v>
+      </c>
+      <c r="G97">
+        <v>0.006631737452573171</v>
+      </c>
+      <c r="H97">
+        <v>0.003379581368667223</v>
+      </c>
+      <c r="I97">
+        <v>0.02239156755139626</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.09424695790998799</v>
+        <v>-0.1276815600931776</v>
       </c>
       <c r="C98">
-        <v>0.1195209174625858</v>
+        <v>0.1549104417978881</v>
       </c>
       <c r="D98">
-        <v>-0.06850678617209645</v>
+        <v>0.02638131159649704</v>
       </c>
       <c r="E98">
-        <v>0.07858245574020785</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.0858009148005273</v>
+      </c>
+      <c r="F98">
+        <v>-0.1000480576963349</v>
+      </c>
+      <c r="G98">
+        <v>0.374920458965869</v>
+      </c>
+      <c r="H98">
+        <v>-0.312056959267679</v>
+      </c>
+      <c r="I98">
+        <v>-0.08103859534870445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001860701459726305</v>
+        <v>-0.004907065631494921</v>
       </c>
       <c r="C101">
-        <v>0.0356078204325438</v>
+        <v>0.06243092858040497</v>
       </c>
       <c r="D101">
-        <v>-0.06956759997031425</v>
+        <v>-0.007720082366898007</v>
       </c>
       <c r="E101">
-        <v>0.08129806853571389</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1169388027133333</v>
+      </c>
+      <c r="F101">
+        <v>-0.04198169428244979</v>
+      </c>
+      <c r="G101">
+        <v>0.06768733773682041</v>
+      </c>
+      <c r="H101">
+        <v>0.1958917392182582</v>
+      </c>
+      <c r="I101">
+        <v>-0.04780039403139457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.04388390363136813</v>
+        <v>-0.01723948004588461</v>
       </c>
       <c r="C102">
-        <v>0.1299915441066918</v>
+        <v>0.07743785621286206</v>
       </c>
       <c r="D102">
-        <v>0.055716044528405</v>
+        <v>0.03675449086164445</v>
       </c>
       <c r="E102">
-        <v>-0.01619403329403481</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.07678159887135301</v>
+      </c>
+      <c r="F102">
+        <v>-0.01228287819062767</v>
+      </c>
+      <c r="G102">
+        <v>-0.032428418948784</v>
+      </c>
+      <c r="H102">
+        <v>0.004008094315864371</v>
+      </c>
+      <c r="I102">
+        <v>0.0088719989934731</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
